--- a/to infinity and beyond 11.xlsx
+++ b/to infinity and beyond 11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="555">
   <si>
     <t>Object</t>
   </si>
@@ -1692,12 +1692,84 @@
   <si>
     <t>you</t>
   </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>entre (coletivo)</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>entre (especificidade)</t>
+  </si>
+  <si>
+    <t>hall (ralll)</t>
+  </si>
+  <si>
+    <t>salão</t>
+  </si>
+  <si>
+    <t>parede</t>
+  </si>
+  <si>
+    <t>wall  (uôlll)</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>andando</t>
+  </si>
+  <si>
+    <t>traveling</t>
+  </si>
+  <si>
+    <t>viajando</t>
+  </si>
+  <si>
+    <t>travelling</t>
+  </si>
+  <si>
+    <t>travel (travoll)</t>
+  </si>
+  <si>
+    <t>viagem</t>
+  </si>
+  <si>
+    <t>viajante</t>
+  </si>
+  <si>
+    <t>O que aconteceu</t>
+  </si>
+  <si>
+    <t>Qual é o problema?</t>
+  </si>
+  <si>
+    <t>what's the matter?</t>
+  </si>
+  <si>
+    <t>What's wrong?</t>
+  </si>
+  <si>
+    <t>what happened</t>
+  </si>
+  <si>
+    <t>O que está errado?</t>
+  </si>
+  <si>
+    <t>hi there</t>
+  </si>
+  <si>
+    <t>olá</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,8 +1853,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF747474"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1843,6 +1921,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1871,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1916,6 +2006,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1940,12 +2039,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1955,10 +2048,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2298,35 +2393,35 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="36"/>
       <c r="G1" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="33"/>
+      <c r="N1" s="38"/>
       <c r="P1" s="21" t="s">
         <v>461</v>
       </c>
       <c r="Q1" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="T1" s="29"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" s="17" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="23"/>
@@ -2368,10 +2463,10 @@
       <c r="Q3" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="29" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2533,14 +2628,14 @@
       <c r="N7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="S7" s="41" t="s">
+      <c r="Q7" s="42"/>
+      <c r="S7" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="29" t="s">
         <v>527</v>
       </c>
     </row>
@@ -2575,8 +2670,8 @@
       <c r="N8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
       <c r="S8" s="27" t="s">
         <v>484</v>
       </c>
@@ -2651,10 +2746,10 @@
       <c r="N10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="Q10" s="40"/>
+      <c r="Q10" s="43"/>
       <c r="S10" s="24" t="s">
         <v>486</v>
       </c>
@@ -2734,10 +2829,10 @@
       <c r="N12" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="Q12" s="39"/>
+      <c r="Q12" s="42"/>
       <c r="S12" s="24" t="s">
         <v>488</v>
       </c>
@@ -2770,8 +2865,8 @@
       <c r="N13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
       <c r="S13" s="24" t="s">
         <v>489</v>
       </c>
@@ -2918,10 +3013,10 @@
       <c r="N17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="S17" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="T17" s="42" t="s">
+      <c r="T17" s="29" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3083,10 +3178,10 @@
       <c r="N23" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="S23" s="41" t="s">
+      <c r="S23" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="T23" s="42" t="s">
+      <c r="T23" s="29" t="s">
         <v>530</v>
       </c>
     </row>
@@ -3289,10 +3384,10 @@
       <c r="E30" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="38"/>
       <c r="M30" s="1" t="s">
         <v>393</v>
       </c>
@@ -3327,7 +3422,7 @@
       <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3346,25 +3441,29 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="I33" s="17"/>
+      <c r="L33" s="17"/>
       <c r="M33" s="1" t="s">
         <v>397</v>
       </c>
@@ -3372,25 +3471,29 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>202</v>
       </c>
+      <c r="I34" s="17"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="1" t="s">
         <v>398</v>
       </c>
@@ -3398,25 +3501,29 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="19" t="s">
         <v>204</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="I35" s="17"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="1" t="s">
         <v>401</v>
       </c>
@@ -3424,198 +3531,258 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="1" t="s">
         <v>205</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="1" t="s">
         <v>207</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F39" s="14"/>
+      <c r="I39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C40" s="6"/>
       <c r="D40" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F40" s="14"/>
+      <c r="I40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F41" s="14"/>
+      <c r="I41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F42" s="14"/>
+      <c r="I42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="14"/>
+      <c r="I43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="6"/>
+      <c r="F44" s="14"/>
+      <c r="I44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6"/>
       <c r="D45" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H45" s="38"/>
+      <c r="I45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>5633472</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="F46" s="14"/>
       <c r="G46" s="1" t="s">
         <v>248</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32">
+        <v>5633473</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="F47" s="14"/>
       <c r="G47" s="1" t="s">
         <v>247</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="6"/>
       <c r="D48" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="30"/>
       <c r="D49" s="1" t="s">
         <v>328</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="F49" s="14"/>
       <c r="G49" s="1" t="s">
         <v>245</v>
       </c>
@@ -3623,10 +3790,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="30"/>
       <c r="D50" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="1" t="s">
         <v>246</v>
       </c>
@@ -3634,13 +3803,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="30"/>
       <c r="D51" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="1" t="s">
         <v>257</v>
       </c>
@@ -3648,10 +3819,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="30"/>
       <c r="D52" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="1" t="s">
         <v>259</v>
       </c>
@@ -3659,13 +3832,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="30"/>
       <c r="D53" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="1" t="s">
         <v>262</v>
       </c>
@@ -3673,10 +3848,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="30"/>
       <c r="D54" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="F54" s="14"/>
       <c r="G54" s="1" t="s">
         <v>263</v>
       </c>
@@ -3684,13 +3861,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="30"/>
       <c r="D55" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="F55" s="14"/>
       <c r="G55" s="1" t="s">
         <v>267</v>
       </c>
@@ -3698,13 +3877,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="30"/>
       <c r="D56" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="F56" s="14"/>
       <c r="G56" s="1" t="s">
         <v>270</v>
       </c>
@@ -3712,33 +3893,39 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="30"/>
       <c r="D57" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="30"/>
       <c r="D58" s="1" t="s">
         <v>343</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="H58" s="33"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="30"/>
       <c r="D59" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="F59" s="14"/>
       <c r="G59" s="1" t="s">
         <v>355</v>
       </c>
@@ -3746,13 +3933,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="30"/>
       <c r="D60" s="1" t="s">
         <v>346</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="1" t="s">
         <v>307</v>
       </c>
@@ -3760,13 +3949,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="30"/>
       <c r="D61" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="F61" s="14"/>
       <c r="G61" s="1" t="s">
         <v>308</v>
       </c>
@@ -3774,13 +3965,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="30"/>
       <c r="D62" s="1" t="s">
         <v>406</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="F62" s="14"/>
       <c r="G62" s="1" t="s">
         <v>358</v>
       </c>
@@ -3788,13 +3981,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="30"/>
       <c r="D63" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="F63" s="14"/>
       <c r="G63" s="1" t="s">
         <v>357</v>
       </c>
@@ -3802,13 +3997,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="30"/>
       <c r="D64" s="1" t="s">
         <v>350</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="F64" s="14"/>
       <c r="G64" s="1" t="s">
         <v>356</v>
       </c>
@@ -3816,24 +4013,28 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="30"/>
       <c r="D65" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="F65" s="14"/>
       <c r="G65" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="30"/>
       <c r="D66" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="F66" s="14"/>
       <c r="G66" s="1" t="s">
         <v>309</v>
       </c>
@@ -3841,13 +4042,15 @@
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="30"/>
       <c r="D67" s="1" t="s">
         <v>402</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="F67" s="14"/>
       <c r="G67" s="1" t="s">
         <v>312</v>
       </c>
@@ -3855,33 +4058,39 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="30"/>
       <c r="D68" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="30"/>
       <c r="D69" s="1" t="s">
         <v>367</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G69" s="32" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="H69" s="33"/>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="30"/>
       <c r="D70" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="F70" s="14"/>
       <c r="G70" s="1" t="s">
         <v>417</v>
       </c>
@@ -3889,13 +4098,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="30"/>
       <c r="D71" s="1" t="s">
         <v>362</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="F71" s="14"/>
       <c r="G71" s="1" t="s">
         <v>412</v>
       </c>
@@ -3903,13 +4114,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="30"/>
       <c r="D72" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="F72" s="14"/>
       <c r="G72" s="1" t="s">
         <v>413</v>
       </c>
@@ -3917,13 +4130,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="30"/>
       <c r="D73" s="1" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="F73" s="14"/>
       <c r="G73" s="1" t="s">
         <v>418</v>
       </c>
@@ -3931,13 +4146,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="30"/>
       <c r="D74" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="F74" s="14"/>
       <c r="G74" s="1" t="s">
         <v>419</v>
       </c>
@@ -3945,13 +4162,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="30"/>
       <c r="D75" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="F75" s="14"/>
       <c r="G75" s="1" t="s">
         <v>421</v>
       </c>
@@ -3959,13 +4178,15 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="30"/>
       <c r="D76" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="F76" s="14"/>
       <c r="G76" s="1" t="s">
         <v>423</v>
       </c>
@@ -3973,7 +4194,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="30"/>
+      <c r="D77" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F77" s="14"/>
       <c r="G77" s="1" t="s">
         <v>424</v>
       </c>
@@ -3981,13 +4210,29 @@
         <v>422</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G78" s="34" t="s">
+    <row r="78" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="30"/>
+      <c r="D78" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="H78" s="35"/>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="40"/>
+    </row>
+    <row r="79" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="30"/>
+      <c r="D79" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F79" s="14"/>
       <c r="G79" s="1" t="s">
         <v>426</v>
       </c>
@@ -3995,7 +4240,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="30"/>
+      <c r="D80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F80" s="14"/>
       <c r="G80" s="1" t="s">
         <v>427</v>
       </c>
@@ -4003,7 +4256,15 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="30"/>
+      <c r="D81" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F81" s="14"/>
       <c r="G81" s="1" t="s">
         <v>428</v>
       </c>
@@ -4011,7 +4272,15 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="30"/>
+      <c r="D82" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F82" s="14"/>
       <c r="G82" s="1" t="s">
         <v>429</v>
       </c>
@@ -4019,13 +4288,39 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G84" s="32" t="s">
+    <row r="83" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="30"/>
+      <c r="D83" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="30"/>
+      <c r="D84" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="H84" s="33"/>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="30"/>
+      <c r="D85" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F85" s="14"/>
       <c r="G85" s="1" t="s">
         <v>435</v>
       </c>
@@ -4033,7 +4328,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="30"/>
+      <c r="D86" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F86" s="14"/>
       <c r="G86" s="1" t="s">
         <v>442</v>
       </c>
@@ -4041,13 +4344,29 @@
         <v>436</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="34" t="s">
+    <row r="87" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="30"/>
+      <c r="D87" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="H87" s="35"/>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="40"/>
+    </row>
+    <row r="88" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="30"/>
+      <c r="D88" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F88" s="14"/>
       <c r="G88" s="1" t="s">
         <v>437</v>
       </c>
@@ -4055,7 +4374,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="30"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="1" t="s">
         <v>439</v>
       </c>
@@ -4063,7 +4384,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="30"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="1" t="s">
         <v>444</v>
       </c>
@@ -4071,7 +4394,10 @@
         <v>443</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="30"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="1" t="s">
         <v>445</v>
       </c>
@@ -4079,13 +4405,20 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G93" s="32" t="s">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="30"/>
+    </row>
+    <row r="93" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="30"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="H93" s="33"/>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="30"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="1" t="s">
         <v>451</v>
       </c>
@@ -4093,7 +4426,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="30"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="1" t="s">
         <v>449</v>
       </c>
@@ -4101,7 +4436,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="30"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="1" t="s">
         <v>453</v>
       </c>
@@ -4109,13 +4446,17 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G97" s="36" t="s">
+    <row r="97" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="H97" s="37"/>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="45"/>
+    </row>
+    <row r="98" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="30"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="1" t="s">
         <v>455</v>
       </c>
@@ -4123,7 +4464,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="30"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="1" t="s">
         <v>458</v>
       </c>
@@ -4131,13 +4474,18 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="30"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="1" t="s">
         <v>460</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>459</v>
       </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/to infinity and beyond 11.xlsx
+++ b/to infinity and beyond 11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="579">
   <si>
     <t>Object</t>
   </si>
@@ -1763,6 +1763,78 @@
   </si>
   <si>
     <t>olá</t>
+  </si>
+  <si>
+    <t>Como vão as coisas</t>
+  </si>
+  <si>
+    <t>How's it going? (Rauzit Going?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you doing? </t>
+  </si>
+  <si>
+    <t>How are You</t>
+  </si>
+  <si>
+    <t>What do you mean? ( Uóriu mim? )</t>
+  </si>
+  <si>
+    <t>O que você quer dizer?</t>
+  </si>
+  <si>
+    <t>Que horas são?</t>
+  </si>
+  <si>
+    <t>What time is it? (Uótaimizit)</t>
+  </si>
+  <si>
+    <t>como vai?</t>
+  </si>
+  <si>
+    <t>Are you busy?</t>
+  </si>
+  <si>
+    <t>Você está ocupado?</t>
+  </si>
+  <si>
+    <t>long time no see!</t>
+  </si>
+  <si>
+    <t>Quanto tempo não te vejo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are you from? </t>
+  </si>
+  <si>
+    <t>De onde você é?</t>
+  </si>
+  <si>
+    <t>Quantos anos você tem?</t>
+  </si>
+  <si>
+    <t>How old are you? (Rall OLDAR YOU?)</t>
+  </si>
+  <si>
+    <t>Prazer em conhecê-lo!</t>
+  </si>
+  <si>
+    <t>Nice to meet you! (nice to meetchiu)</t>
+  </si>
+  <si>
+    <t>Tenha um bom dia</t>
+  </si>
+  <si>
+    <t>Have a nice day ( REVA nice day)</t>
+  </si>
+  <si>
+    <t>What´s your name? (Uótisíor name</t>
+  </si>
+  <si>
+    <t>How can I help you!</t>
+  </si>
+  <si>
+    <t>Como posso ajudar você</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +2006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1957,11 +2029,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2054,6 +2141,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -3718,9 +3807,7 @@
       <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
-        <v>5633472</v>
-      </c>
+      <c r="A46" s="31"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1" t="s">
         <v>323</v>
@@ -3736,9 +3823,7 @@
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32">
-        <v>5633473</v>
-      </c>
+      <c r="A47" s="32"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1" t="s">
         <v>324</v>
@@ -4376,6 +4461,12 @@
     </row>
     <row r="89" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="30"/>
+      <c r="D89" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F89" s="14"/>
       <c r="G89" s="1" t="s">
         <v>439</v>
@@ -4386,6 +4477,12 @@
     </row>
     <row r="90" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="30"/>
+      <c r="D90" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="F90" s="14"/>
       <c r="G90" s="1" t="s">
         <v>444</v>
@@ -4396,7 +4493,12 @@
     </row>
     <row r="91" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="30"/>
-      <c r="E91" s="5"/>
+      <c r="D91" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>563</v>
+      </c>
       <c r="F91" s="14"/>
       <c r="G91" s="1" t="s">
         <v>445</v>
@@ -4407,9 +4509,21 @@
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C92" s="30"/>
+      <c r="D92" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="93" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C93" s="30"/>
+      <c r="D93" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="F93" s="14"/>
       <c r="G93" s="37" t="s">
         <v>447</v>
@@ -4418,6 +4532,12 @@
     </row>
     <row r="94" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C94" s="30"/>
+      <c r="D94" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="F94" s="14"/>
       <c r="G94" s="1" t="s">
         <v>451</v>
@@ -4428,6 +4548,12 @@
     </row>
     <row r="95" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C95" s="30"/>
+      <c r="D95" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="F95" s="14"/>
       <c r="G95" s="1" t="s">
         <v>449</v>
@@ -4438,6 +4564,12 @@
     </row>
     <row r="96" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C96" s="30"/>
+      <c r="D96" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="F96" s="14"/>
       <c r="G96" s="1" t="s">
         <v>453</v>
@@ -4448,6 +4580,12 @@
     </row>
     <row r="97" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C97" s="30"/>
+      <c r="D97" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="F97" s="30"/>
       <c r="G97" s="44" t="s">
         <v>454</v>
@@ -4456,6 +4594,12 @@
     </row>
     <row r="98" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C98" s="30"/>
+      <c r="D98" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="F98" s="30"/>
       <c r="G98" s="1" t="s">
         <v>455</v>
@@ -4466,6 +4610,12 @@
     </row>
     <row r="99" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C99" s="30"/>
+      <c r="D99" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="F99" s="30"/>
       <c r="G99" s="1" t="s">
         <v>458</v>
@@ -4476,6 +4626,12 @@
     </row>
     <row r="100" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C100" s="30"/>
+      <c r="D100" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="F100" s="30"/>
       <c r="G100" s="1" t="s">
         <v>460</v>
@@ -4485,7 +4641,18 @@
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D101" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D102" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
